--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2987.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2987.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.193815875310326</v>
+        <v>1.737949132919312</v>
       </c>
       <c r="B1">
-        <v>2.513207639444977</v>
+        <v>2.282087087631226</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.336277484893799</v>
       </c>
       <c r="D1">
-        <v>2.252874746619308</v>
+        <v>2.64025092124939</v>
       </c>
       <c r="E1">
-        <v>1.18603712512054</v>
+        <v>3.37243914604187</v>
       </c>
     </row>
   </sheetData>
